--- a/Data/msg.xlsx
+++ b/Data/msg.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="G:\Oz\fiveer\Dani_Velinchick\KrohnApp\python_codes\COBIMINDEX\Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{00912929-2177-4A40-9BF0-07D21B81E74E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{348D3EE1-6F1D-472E-AECF-968170FE1AA9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{4175AEFF-1B8E-4439-8782-F4E46E950900}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="456" uniqueCount="170">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="457" uniqueCount="169">
   <si>
     <t>נראה שאתה לא מרגיש כל כך טוב, בוא נראה אם התרגול של היום ישפר את הרגשתך</t>
   </si>
@@ -286,9 +286,6 @@
     <t xml:space="preserve">קשה לך אנחנו רואים זאת, בוא  ונתרגל  </t>
   </si>
   <si>
-    <t xml:space="preserve">רואים שאת/ה מרגיש/רע בוא נתרגל   ואתה תראה שיכולים להיות שינויים בהרגשה . נעשה זאת יחד. </t>
-  </si>
-  <si>
     <t xml:space="preserve">רואים שיש מקום לשיפור  בוא נתרגל   ואתה תראה שיכולים להיות שינויים בהרגשה . נעשה זאת יחד. </t>
   </si>
   <si>
@@ -439,9 +436,6 @@
     <t>female</t>
   </si>
   <si>
-    <t>femal</t>
-  </si>
-  <si>
     <t>מהמדדים שמילאת נראה שאת מרגישה מאד לא טוב. את בסטרס (לחץ נפשי מתח בדחק נפשי), עייפה וכואב. טוב שאת כאן לתרגל! בואי ננסה להקל על תחושותייך ולגרום לך להרגיש פחות רע</t>
   </si>
   <si>
@@ -686,6 +680,9 @@
     <t xml:space="preserve">תודה על שיתוף התחושות שלך,
 כל הכבוד על שאת מקפידה לתרגל! 
 את עובדת כדי להרגיש טוב וזה המתכון להצלחה! </t>
+  </si>
+  <si>
+    <t xml:space="preserve">רואים שאתה מרגיש רע ,בוא נתרגל ואתה תראה שיכולים להיות שינויים בהרגשה . נעשה זאת יחד. </t>
   </si>
 </sst>
 </file>
@@ -1123,10 +1120,10 @@
   <dimension ref="A1:T24"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <pane xSplit="2" ySplit="1" topLeftCell="Q22" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="1" topLeftCell="P2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="U24" sqref="U24"/>
+      <selection pane="bottomRight" activeCell="Q3" sqref="Q3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1156,28 +1153,28 @@
         <v>8</v>
       </c>
       <c r="C1" s="4" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="D1" s="4" t="s">
+        <v>70</v>
+      </c>
+      <c r="E1" s="4" t="s">
+        <v>66</v>
+      </c>
+      <c r="F1" s="4" t="s">
         <v>71</v>
       </c>
-      <c r="E1" s="4" t="s">
+      <c r="G1" s="4" t="s">
         <v>67</v>
       </c>
-      <c r="F1" s="4" t="s">
+      <c r="H1" s="4" t="s">
         <v>72</v>
       </c>
-      <c r="G1" s="4" t="s">
-        <v>68</v>
-      </c>
-      <c r="H1" s="4" t="s">
+      <c r="I1" s="4" t="s">
+        <v>59</v>
+      </c>
+      <c r="J1" s="4" t="s">
         <v>73</v>
-      </c>
-      <c r="I1" s="4" t="s">
-        <v>60</v>
-      </c>
-      <c r="J1" s="4" t="s">
-        <v>74</v>
       </c>
       <c r="K1" s="4" t="s">
         <v>6</v>
@@ -1189,25 +1186,25 @@
         <v>1</v>
       </c>
       <c r="N1" s="4" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="O1" s="4" t="s">
         <v>2</v>
       </c>
       <c r="P1" s="4" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="Q1" s="4" t="s">
         <v>3</v>
       </c>
       <c r="R1" s="4" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="S1" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="T1" s="3" t="s">
-        <v>88</v>
+      <c r="T1" s="4" t="s">
+        <v>86</v>
       </c>
     </row>
     <row r="2" spans="1:20" ht="57.6" x14ac:dyDescent="0.3">
@@ -1215,31 +1212,31 @@
         <v>1</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="C2" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="D2" s="3" t="s">
+        <v>81</v>
+      </c>
+      <c r="E2" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="F2" s="3" t="s">
+        <v>81</v>
+      </c>
+      <c r="G2" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="H2" s="3" t="s">
+        <v>81</v>
+      </c>
+      <c r="I2" s="1" t="s">
         <v>61</v>
       </c>
-      <c r="D2" s="3" t="s">
-        <v>82</v>
-      </c>
-      <c r="E2" s="1" t="s">
-        <v>61</v>
-      </c>
-      <c r="F2" s="3" t="s">
-        <v>82</v>
-      </c>
-      <c r="G2" s="1" t="s">
-        <v>61</v>
-      </c>
-      <c r="H2" s="3" t="s">
-        <v>82</v>
-      </c>
-      <c r="I2" s="1" t="s">
-        <v>62</v>
-      </c>
       <c r="J2" s="3" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="K2" s="1" t="s">
         <v>10</v>
@@ -1251,25 +1248,25 @@
         <v>36</v>
       </c>
       <c r="N2" s="1" t="s">
+        <v>87</v>
+      </c>
+      <c r="O2" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="P2" s="1" t="s">
         <v>89</v>
       </c>
-      <c r="O2" s="1" t="s">
+      <c r="Q2" s="1" t="s">
+        <v>168</v>
+      </c>
+      <c r="R2" s="1" t="s">
         <v>90</v>
-      </c>
-      <c r="P2" s="1" t="s">
-        <v>91</v>
-      </c>
-      <c r="Q2" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="R2" s="1" t="s">
-        <v>92</v>
       </c>
       <c r="S2" s="5" t="s">
         <v>37</v>
       </c>
       <c r="T2" s="5" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
     </row>
     <row r="3" spans="1:20" ht="57.6" x14ac:dyDescent="0.3">
@@ -1277,31 +1274,31 @@
         <v>2</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="C3" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="D3" s="3" t="s">
+        <v>81</v>
+      </c>
+      <c r="E3" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="F3" s="3" t="s">
+        <v>81</v>
+      </c>
+      <c r="G3" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="H3" s="3" t="s">
+        <v>81</v>
+      </c>
+      <c r="I3" s="1" t="s">
         <v>63</v>
       </c>
-      <c r="D3" s="3" t="s">
-        <v>82</v>
-      </c>
-      <c r="E3" s="1" t="s">
-        <v>63</v>
-      </c>
-      <c r="F3" s="3" t="s">
-        <v>82</v>
-      </c>
-      <c r="G3" s="1" t="s">
-        <v>63</v>
-      </c>
-      <c r="H3" s="3" t="s">
-        <v>82</v>
-      </c>
-      <c r="I3" s="1" t="s">
-        <v>64</v>
-      </c>
       <c r="J3" s="3" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="K3" s="1" t="s">
         <v>11</v>
@@ -1313,25 +1310,25 @@
         <v>0</v>
       </c>
       <c r="N3" s="1" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="O3" s="1" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="P3" s="1" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="Q3" s="1" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="R3" s="1" t="s">
-        <v>122</v>
-      </c>
-      <c r="S3" s="5" t="s">
-        <v>37</v>
-      </c>
-      <c r="T3" s="5" t="s">
-        <v>84</v>
+        <v>120</v>
+      </c>
+      <c r="S3" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="T3" s="1" t="s">
+        <v>120</v>
       </c>
     </row>
     <row r="4" spans="1:20" ht="57.6" x14ac:dyDescent="0.3">
@@ -1339,31 +1336,31 @@
         <v>3</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="D4" s="3" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="E4" s="1" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="F4" s="3" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="G4" s="1" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="H4" s="3" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="I4" s="1" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="J4" s="3" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="K4" s="1" t="s">
         <v>12</v>
@@ -1372,28 +1369,28 @@
         <v>34</v>
       </c>
       <c r="M4" s="1" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="N4" s="1" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="O4" s="1" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="P4" s="1" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="Q4" s="1" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="R4" s="1" t="s">
-        <v>123</v>
-      </c>
-      <c r="S4" s="5" t="s">
-        <v>37</v>
-      </c>
-      <c r="T4" s="5" t="s">
-        <v>84</v>
+        <v>121</v>
+      </c>
+      <c r="S4" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="T4" s="1" t="s">
+        <v>121</v>
       </c>
     </row>
     <row r="5" spans="1:20" ht="57.6" x14ac:dyDescent="0.3">
@@ -1401,31 +1398,31 @@
         <v>4</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="D5" s="3" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="E5" s="1" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="F5" s="3" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="G5" s="1" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="H5" s="3" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="I5" s="1" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="J5" s="3" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="K5" s="1" t="s">
         <v>13</v>
@@ -1434,28 +1431,28 @@
         <v>34</v>
       </c>
       <c r="M5" s="1" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="N5" s="1" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="O5" s="1" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="P5" s="1" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="Q5" s="1" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="R5" s="1" t="s">
-        <v>124</v>
-      </c>
-      <c r="S5" s="5" t="s">
-        <v>37</v>
-      </c>
-      <c r="T5" s="5" t="s">
-        <v>84</v>
+        <v>122</v>
+      </c>
+      <c r="S5" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="T5" s="1" t="s">
+        <v>122</v>
       </c>
     </row>
     <row r="6" spans="1:20" ht="57.6" x14ac:dyDescent="0.3">
@@ -1463,31 +1460,31 @@
         <v>5</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="D6" s="3" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="E6" s="1" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="F6" s="3" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="G6" s="1" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="H6" s="3" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="I6" s="1" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="J6" s="3" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="K6" s="1" t="s">
         <v>14</v>
@@ -1496,28 +1493,28 @@
         <v>34</v>
       </c>
       <c r="M6" s="1" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="N6" s="1" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="O6" s="1" t="s">
+        <v>109</v>
+      </c>
+      <c r="P6" s="1" t="s">
         <v>111</v>
       </c>
-      <c r="P6" s="1" t="s">
-        <v>113</v>
-      </c>
       <c r="Q6" s="1" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="R6" s="1" t="s">
-        <v>125</v>
-      </c>
-      <c r="S6" s="5" t="s">
-        <v>37</v>
-      </c>
-      <c r="T6" s="5" t="s">
-        <v>84</v>
+        <v>123</v>
+      </c>
+      <c r="S6" s="1" t="s">
+        <v>124</v>
+      </c>
+      <c r="T6" s="1" t="s">
+        <v>123</v>
       </c>
     </row>
     <row r="7" spans="1:20" ht="57.6" x14ac:dyDescent="0.3">
@@ -1525,31 +1522,31 @@
         <v>6</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="D7" s="3" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="E7" s="1" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="F7" s="3" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="G7" s="1" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="H7" s="3" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="I7" s="1" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="J7" s="3" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="K7" s="1" t="s">
         <v>14</v>
@@ -1558,28 +1555,28 @@
         <v>34</v>
       </c>
       <c r="M7" s="1" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="N7" s="1" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="O7" s="1" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="P7" s="1" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="Q7" s="1" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="R7" s="1" t="s">
-        <v>125</v>
-      </c>
-      <c r="S7" s="5" t="s">
-        <v>37</v>
-      </c>
-      <c r="T7" s="5" t="s">
-        <v>84</v>
+        <v>123</v>
+      </c>
+      <c r="S7" s="1" t="s">
+        <v>124</v>
+      </c>
+      <c r="T7" s="1" t="s">
+        <v>123</v>
       </c>
     </row>
     <row r="8" spans="1:20" ht="57.6" x14ac:dyDescent="0.3">
@@ -1587,31 +1584,31 @@
         <v>7</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="D8" s="3" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="E8" s="1" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="F8" s="3" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="G8" s="1" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="H8" s="3" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="I8" s="1" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="J8" s="3" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="K8" s="1" t="s">
         <v>15</v>
@@ -1620,28 +1617,28 @@
         <v>34</v>
       </c>
       <c r="M8" s="1" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="N8" s="1" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="O8" s="1" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="P8" s="1" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="Q8" s="1" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="R8" s="1" t="s">
-        <v>127</v>
-      </c>
-      <c r="S8" s="5" t="s">
-        <v>37</v>
-      </c>
-      <c r="T8" s="5" t="s">
-        <v>84</v>
+        <v>125</v>
+      </c>
+      <c r="S8" s="1" t="s">
+        <v>126</v>
+      </c>
+      <c r="T8" s="1" t="s">
+        <v>125</v>
       </c>
     </row>
     <row r="9" spans="1:20" ht="57.6" x14ac:dyDescent="0.3">
@@ -1649,31 +1646,31 @@
         <v>8</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="D9" s="3" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="E9" s="1" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="F9" s="3" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="G9" s="1" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="H9" s="3" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="I9" s="1" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="J9" s="3" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="K9" s="1" t="s">
         <v>16</v>
@@ -1682,28 +1679,28 @@
         <v>34</v>
       </c>
       <c r="M9" s="1" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="N9" s="1" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="O9" s="1" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="P9" s="1" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="Q9" s="1" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="R9" s="1" t="s">
-        <v>129</v>
-      </c>
-      <c r="S9" s="5" t="s">
-        <v>37</v>
-      </c>
-      <c r="T9" s="5" t="s">
-        <v>84</v>
+        <v>127</v>
+      </c>
+      <c r="S9" s="1" t="s">
+        <v>128</v>
+      </c>
+      <c r="T9" s="1" t="s">
+        <v>127</v>
       </c>
     </row>
     <row r="10" spans="1:20" ht="57.6" x14ac:dyDescent="0.3">
@@ -1711,31 +1708,31 @@
         <v>9</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="D10" s="3" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="E10" s="1" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="F10" s="3" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="G10" s="1" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="H10" s="3" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="I10" s="1" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="J10" s="3" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="K10" s="10" t="s">
         <v>17</v>
@@ -1747,25 +1744,25 @@
         <v>18</v>
       </c>
       <c r="N10" s="1" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="O10" s="1" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="P10" s="1" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="Q10" s="1" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="R10" s="1" t="s">
-        <v>131</v>
-      </c>
-      <c r="S10" s="5" t="s">
-        <v>37</v>
-      </c>
-      <c r="T10" s="5" t="s">
-        <v>84</v>
+        <v>129</v>
+      </c>
+      <c r="S10" s="1" t="s">
+        <v>130</v>
+      </c>
+      <c r="T10" s="1" t="s">
+        <v>129</v>
       </c>
     </row>
     <row r="11" spans="1:20" ht="43.2" x14ac:dyDescent="0.3">
@@ -1773,31 +1770,31 @@
         <v>10</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="C11" s="3" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="D11" s="3" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="E11" s="3" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="F11" s="3" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="G11" s="3" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="H11" s="3" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="I11" s="3" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="J11" s="3" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="K11" s="3" t="s">
         <v>19</v>
@@ -1806,28 +1803,28 @@
         <v>34</v>
       </c>
       <c r="M11" s="11" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="N11" s="11" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="O11" s="11" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="P11" s="11" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="Q11" s="11" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="R11" s="11" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="S11" s="11" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="T11" s="11" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
     </row>
     <row r="12" spans="1:20" s="3" customFormat="1" ht="57.6" x14ac:dyDescent="0.3">
@@ -1835,31 +1832,31 @@
         <v>11</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="D12" s="1" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="E12" s="1" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="F12" s="1" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="G12" s="1" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="H12" s="1" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="I12" s="1" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="J12" s="1" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="K12" s="1" t="s">
         <v>5</v>
@@ -1868,28 +1865,28 @@
         <v>33</v>
       </c>
       <c r="M12" s="1" t="s">
+        <v>132</v>
+      </c>
+      <c r="N12" s="1" t="s">
+        <v>131</v>
+      </c>
+      <c r="O12" s="1" t="s">
         <v>134</v>
       </c>
-      <c r="N12" s="1" t="s">
+      <c r="P12" s="1" t="s">
         <v>133</v>
       </c>
-      <c r="O12" s="1" t="s">
+      <c r="Q12" s="1" t="s">
         <v>136</v>
       </c>
-      <c r="P12" s="1" t="s">
+      <c r="R12" s="1" t="s">
         <v>135</v>
       </c>
-      <c r="Q12" s="1" t="s">
-        <v>138</v>
-      </c>
-      <c r="R12" s="1" t="s">
-        <v>137</v>
-      </c>
-      <c r="S12" s="5" t="s">
-        <v>37</v>
-      </c>
-      <c r="T12" s="5" t="s">
-        <v>84</v>
+      <c r="S12" s="1" t="s">
+        <v>136</v>
+      </c>
+      <c r="T12" s="1" t="s">
+        <v>135</v>
       </c>
     </row>
     <row r="13" spans="1:20" ht="57.6" x14ac:dyDescent="0.3">
@@ -1897,31 +1894,31 @@
         <v>12</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="C13" s="1" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="D13" s="1" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="E13" s="1" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="F13" s="1" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="G13" s="1" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="H13" s="1" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="I13" s="1" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="J13" s="1" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="K13" s="1" t="s">
         <v>32</v>
@@ -1936,22 +1933,22 @@
         <v>35</v>
       </c>
       <c r="O13" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="P13" s="1" t="s">
+        <v>137</v>
+      </c>
+      <c r="Q13" s="1" t="s">
         <v>41</v>
       </c>
-      <c r="P13" s="1" t="s">
-        <v>139</v>
-      </c>
-      <c r="Q13" s="1" t="s">
-        <v>42</v>
-      </c>
       <c r="R13" s="1" t="s">
-        <v>140</v>
-      </c>
-      <c r="S13" s="5" t="s">
-        <v>37</v>
-      </c>
-      <c r="T13" s="5" t="s">
-        <v>84</v>
+        <v>138</v>
+      </c>
+      <c r="S13" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="T13" s="1" t="s">
+        <v>138</v>
       </c>
     </row>
     <row r="14" spans="1:20" ht="100.8" x14ac:dyDescent="0.3">
@@ -1959,31 +1956,31 @@
         <v>13</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="C14" s="7" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="D14" s="1" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="E14" s="1" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="F14" s="1" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="G14" s="1" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="H14" s="1" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="I14" s="1" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="J14" s="1" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="K14" s="7" t="s">
         <v>28</v>
@@ -1995,57 +1992,57 @@
         <v>29</v>
       </c>
       <c r="N14" s="8" t="s">
+        <v>139</v>
+      </c>
+      <c r="O14" s="7" t="s">
         <v>141</v>
       </c>
-      <c r="O14" s="7" t="s">
-        <v>143</v>
-      </c>
       <c r="P14" s="7" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="R14" s="7" t="s">
-        <v>43</v>
-      </c>
-      <c r="S14" s="5" t="s">
-        <v>37</v>
-      </c>
-      <c r="T14" s="5" t="s">
-        <v>84</v>
+        <v>42</v>
+      </c>
+      <c r="S14" s="7" t="s">
+        <v>42</v>
+      </c>
+      <c r="T14" s="7" t="s">
+        <v>42</v>
       </c>
     </row>
-    <row r="15" spans="1:20" ht="115.2" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:20" ht="115.2" x14ac:dyDescent="0.25">
       <c r="A15" s="2">
         <v>14</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="C15" s="1" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="D15" s="1" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="E15" s="1" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="F15" s="1" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="G15" s="1" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="H15" s="1" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="I15" s="1" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="J15" s="1" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="K15" s="1" t="s">
         <v>31</v>
@@ -2057,25 +2054,25 @@
         <v>30</v>
       </c>
       <c r="N15" s="1" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="O15" s="9" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="P15" s="9" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="Q15" s="1" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="R15" s="1" t="s">
-        <v>44</v>
-      </c>
-      <c r="S15" s="5" t="s">
-        <v>37</v>
-      </c>
-      <c r="T15" s="5" t="s">
-        <v>84</v>
+        <v>43</v>
+      </c>
+      <c r="S15" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="T15" s="1" t="s">
+        <v>43</v>
       </c>
     </row>
     <row r="16" spans="1:20" ht="72" x14ac:dyDescent="0.3">
@@ -2083,31 +2080,31 @@
         <v>15</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="C16" s="1" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="D16" s="1" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="E16" s="1" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="F16" s="1" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="G16" s="1" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="H16" s="1" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="I16" s="1" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="J16" s="1" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="K16" s="1" t="s">
         <v>20</v>
@@ -2116,28 +2113,28 @@
         <v>33</v>
       </c>
       <c r="M16" s="1" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="N16" s="1" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="O16" s="1" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="P16" s="1" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="Q16" s="1" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="R16" s="1" t="s">
-        <v>45</v>
-      </c>
-      <c r="S16" s="5" t="s">
-        <v>37</v>
-      </c>
-      <c r="T16" s="5" t="s">
-        <v>84</v>
+        <v>44</v>
+      </c>
+      <c r="S16" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="T16" s="1" t="s">
+        <v>44</v>
       </c>
     </row>
     <row r="17" spans="1:20" ht="86.4" x14ac:dyDescent="0.3">
@@ -2145,31 +2142,31 @@
         <v>16</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="C17" s="1" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="D17" s="1" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="E17" s="1" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="F17" s="1" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="G17" s="1" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="H17" s="1" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="I17" s="1" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="J17" s="1" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="K17" s="1" t="s">
         <v>21</v>
@@ -2178,28 +2175,28 @@
         <v>33</v>
       </c>
       <c r="M17" s="1" t="s">
+        <v>145</v>
+      </c>
+      <c r="N17" s="1" t="s">
+        <v>146</v>
+      </c>
+      <c r="O17" s="1" t="s">
         <v>147</v>
       </c>
-      <c r="N17" s="1" t="s">
+      <c r="P17" s="1" t="s">
         <v>148</v>
       </c>
-      <c r="O17" s="1" t="s">
-        <v>149</v>
-      </c>
-      <c r="P17" s="1" t="s">
+      <c r="Q17" s="1" t="s">
         <v>150</v>
       </c>
-      <c r="Q17" s="1" t="s">
-        <v>152</v>
-      </c>
       <c r="R17" s="1" t="s">
-        <v>55</v>
-      </c>
-      <c r="S17" s="5" t="s">
-        <v>37</v>
-      </c>
-      <c r="T17" s="5" t="s">
-        <v>84</v>
+        <v>54</v>
+      </c>
+      <c r="S17" s="1" t="s">
+        <v>150</v>
+      </c>
+      <c r="T17" s="1" t="s">
+        <v>54</v>
       </c>
     </row>
     <row r="18" spans="1:20" ht="72" x14ac:dyDescent="0.3">
@@ -2207,31 +2204,31 @@
         <v>17</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="C18" s="1" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="D18" s="1" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="E18" s="1" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="F18" s="1" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="G18" s="1" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="H18" s="1" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="I18" s="1" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="J18" s="1" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="K18" s="1" t="s">
         <v>22</v>
@@ -2240,28 +2237,28 @@
         <v>33</v>
       </c>
       <c r="M18" s="1" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
       <c r="N18" s="1" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="O18" s="1" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="P18" s="1" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="Q18" s="1" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="R18" s="1" t="s">
-        <v>53</v>
-      </c>
-      <c r="S18" s="5" t="s">
-        <v>37</v>
-      </c>
-      <c r="T18" s="5" t="s">
-        <v>84</v>
+        <v>52</v>
+      </c>
+      <c r="S18" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="T18" s="1" t="s">
+        <v>52</v>
       </c>
     </row>
     <row r="19" spans="1:20" ht="72" x14ac:dyDescent="0.3">
@@ -2269,31 +2266,31 @@
         <v>18</v>
       </c>
       <c r="B19" s="1" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="C19" s="1" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="D19" s="1" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="E19" s="1" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="F19" s="1" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="G19" s="1" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="H19" s="1" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="I19" s="1" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="J19" s="1" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="K19" s="1" t="s">
         <v>23</v>
@@ -2302,28 +2299,28 @@
         <v>33</v>
       </c>
       <c r="M19" s="1" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="N19" s="1" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="O19" s="1" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="P19" s="1" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="Q19" s="1" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="R19" s="1" t="s">
-        <v>54</v>
-      </c>
-      <c r="S19" s="5" t="s">
-        <v>37</v>
-      </c>
-      <c r="T19" s="5" t="s">
-        <v>84</v>
+        <v>53</v>
+      </c>
+      <c r="S19" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="T19" s="1" t="s">
+        <v>53</v>
       </c>
     </row>
     <row r="20" spans="1:20" ht="86.4" x14ac:dyDescent="0.3">
@@ -2331,31 +2328,31 @@
         <v>19</v>
       </c>
       <c r="B20" s="1" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="C20" s="1" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="D20" s="1" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="E20" s="1" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="F20" s="1" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="G20" s="1" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="H20" s="1" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="I20" s="1" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="J20" s="1" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="K20" s="1" t="s">
         <v>24</v>
@@ -2364,28 +2361,28 @@
         <v>33</v>
       </c>
       <c r="M20" s="1" t="s">
+        <v>153</v>
+      </c>
+      <c r="N20" s="1" t="s">
+        <v>154</v>
+      </c>
+      <c r="O20" s="1" t="s">
         <v>155</v>
       </c>
-      <c r="N20" s="1" t="s">
+      <c r="P20" s="1" t="s">
         <v>156</v>
       </c>
-      <c r="O20" s="1" t="s">
+      <c r="Q20" s="1" t="s">
         <v>157</v>
       </c>
-      <c r="P20" s="1" t="s">
-        <v>158</v>
-      </c>
-      <c r="Q20" s="1" t="s">
-        <v>159</v>
-      </c>
       <c r="R20" s="1" t="s">
-        <v>56</v>
-      </c>
-      <c r="S20" s="5" t="s">
-        <v>37</v>
-      </c>
-      <c r="T20" s="5" t="s">
-        <v>84</v>
+        <v>55</v>
+      </c>
+      <c r="S20" s="1" t="s">
+        <v>157</v>
+      </c>
+      <c r="T20" s="1" t="s">
+        <v>55</v>
       </c>
     </row>
     <row r="21" spans="1:20" ht="86.4" x14ac:dyDescent="0.3">
@@ -2393,31 +2390,31 @@
         <v>20</v>
       </c>
       <c r="B21" s="1" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="C21" s="1" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="D21" s="1" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="E21" s="1" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="F21" s="1" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="G21" s="1" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="H21" s="1" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="I21" s="1" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="J21" s="1" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="K21" s="1" t="s">
         <v>25</v>
@@ -2426,28 +2423,28 @@
         <v>33</v>
       </c>
       <c r="M21" s="1" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="N21" s="1" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="O21" s="1" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="P21" s="1" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="Q21" s="1" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="R21" s="1" t="s">
-        <v>57</v>
-      </c>
-      <c r="S21" s="5" t="s">
-        <v>37</v>
-      </c>
-      <c r="T21" s="5" t="s">
-        <v>84</v>
+        <v>56</v>
+      </c>
+      <c r="S21" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="T21" s="1" t="s">
+        <v>56</v>
       </c>
     </row>
     <row r="22" spans="1:20" ht="86.4" x14ac:dyDescent="0.3">
@@ -2455,31 +2452,31 @@
         <v>21</v>
       </c>
       <c r="B22" s="1" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="C22" s="1" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="D22" s="1" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="E22" s="1" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="F22" s="1" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="G22" s="1" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="H22" s="1" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="I22" s="1" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="J22" s="1" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="K22" s="1" t="s">
         <v>26</v>
@@ -2488,28 +2485,28 @@
         <v>33</v>
       </c>
       <c r="M22" s="1" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="N22" s="1" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="O22" s="1" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="P22" s="1" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="Q22" s="1" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="R22" s="1" t="s">
-        <v>58</v>
-      </c>
-      <c r="S22" s="5" t="s">
-        <v>37</v>
-      </c>
-      <c r="T22" s="5" t="s">
-        <v>84</v>
+        <v>57</v>
+      </c>
+      <c r="S22" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="T22" s="1" t="s">
+        <v>57</v>
       </c>
     </row>
     <row r="23" spans="1:20" ht="86.4" x14ac:dyDescent="0.3">
@@ -2517,31 +2514,31 @@
         <v>22</v>
       </c>
       <c r="B23" s="1" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="C23" s="1" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="D23" s="1" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="E23" s="1" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="F23" s="1" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="G23" s="1" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="H23" s="1" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="I23" s="1" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="J23" s="1" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="K23" s="1" t="s">
         <v>27</v>
@@ -2550,25 +2547,28 @@
         <v>33</v>
       </c>
       <c r="M23" s="1" t="s">
+        <v>162</v>
+      </c>
+      <c r="N23" s="1" t="s">
+        <v>163</v>
+      </c>
+      <c r="O23" s="1" t="s">
         <v>164</v>
       </c>
-      <c r="N23" s="1" t="s">
+      <c r="P23" s="1" t="s">
         <v>165</v>
       </c>
-      <c r="O23" s="1" t="s">
+      <c r="Q23" s="1" t="s">
         <v>166</v>
       </c>
-      <c r="P23" s="1" t="s">
-        <v>167</v>
-      </c>
-      <c r="Q23" s="1" t="s">
-        <v>168</v>
-      </c>
       <c r="R23" s="1" t="s">
-        <v>59</v>
-      </c>
-      <c r="S23" s="5" t="s">
-        <v>37</v>
+        <v>58</v>
+      </c>
+      <c r="S23" s="1" t="s">
+        <v>166</v>
+      </c>
+      <c r="T23" s="1" t="s">
+        <v>58</v>
       </c>
     </row>
     <row r="24" spans="1:20" ht="57.6" x14ac:dyDescent="0.3">
@@ -2576,31 +2576,31 @@
         <v>23</v>
       </c>
       <c r="B24" s="1" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="C24" s="3" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="D24" s="3" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="E24" s="3" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="F24" s="3" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="G24" s="3" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="H24" s="3" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="I24" s="3" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="J24" s="3" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="K24" s="3" t="s">
         <v>19</v>
@@ -2609,28 +2609,28 @@
         <v>33</v>
       </c>
       <c r="M24" s="12" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="N24" s="12" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
       <c r="O24" s="12" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="P24" s="12" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
       <c r="Q24" s="12" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="R24" s="12" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
       <c r="S24" s="12" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="T24" s="12" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
     </row>
   </sheetData>
